--- a/src/cloud/tests/HCM/TimeAndAbsence_India/AbseneceEntryITC_Test.xlsx
+++ b/src/cloud/tests/HCM/TimeAndAbsence_India/AbseneceEntryITC_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbethi\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\HCM\HCM_India\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vramasubramanian\OneDrive - IT Convergence\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\HCM\TimeAndAbsence_India\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BB466F-AA3D-4953-9C04-953A6B2781C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF72DCC-FAAC-4293-9DE6-C00BD0481FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS01" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Execute</t>
   </si>
@@ -79,23 +79,50 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Leave Without Pay</t>
-  </si>
-  <si>
-    <t>T3Leave</t>
-  </si>
-  <si>
     <t>{HCM_India_username}</t>
   </si>
   <si>
     <t>Navigate</t>
+  </si>
+  <si>
+    <t>Details_Reason</t>
+  </si>
+  <si>
+    <t>ITC India Compensatory Leave</t>
+  </si>
+  <si>
+    <t>ITC India Leave Without Pay</t>
+  </si>
+  <si>
+    <t>Worked over Holiday</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>ITC India Casual/Sick Leave</t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,24 +131,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,21 +179,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,18 +200,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -261,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -313,7 +321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -515,45 +523,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="3"/>
-    <col min="2" max="2" width="0.81640625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="20.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="0.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="0.81640625" style="2" customWidth="1"/>
-    <col min="9" max="12" width="20.7265625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="0.81640625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="0.85546875" style="2" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="0.85546875" style="2" customWidth="1"/>
+    <col min="9" max="13" width="20.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="0.85546875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="G1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="12" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -563,58 +572,121 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="str">
+        <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
+        <v>06/29/21</v>
+      </c>
+      <c r="K3" s="7" t="str">
+        <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
+        <v>06/29/21</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="6" t="str">
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>05/25/21</v>
-      </c>
-      <c r="K3" s="8" t="str">
+        <v>06/29/21</v>
+      </c>
+      <c r="K4" s="5" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>05/25/21</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>15</v>
+        <v>06/29/21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C5" s="5"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
+        <v>06/29/21</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
+        <v>06/29/21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -627,7 +699,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
